--- a/DOC/TEST_PROFITABILITY.xlsx
+++ b/DOC/TEST_PROFITABILITY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U093799\Documents\GitHub\IndexRebalancing\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CAD58B-E6DA-4C92-8729-4F4D6D0B4C22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE2E13F-06FD-4628-9728-16C31C849173}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="675" windowWidth="16545" windowHeight="10110" xr2:uid="{9A20BBE5-AACC-449F-B995-39F141AEDBB8}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="8325" xr2:uid="{9A20BBE5-AACC-449F-B995-39F141AEDBB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -291,8 +291,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="172" formatCode="0.00000000"/>
+    <numFmt numFmtId="173" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -350,13 +354,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -369,6 +373,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,472 +402,472 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|11715984806024769632</stp>
-        <tr r="L16" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|17784693986877157519</stp>
+        <stp>BDH|10228557832089761501</stp>
+        <tr r="L14" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|15732820443153093080</stp>
+        <tr r="J20" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|11852501182650145445</stp>
+        <tr r="K11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|18267025010952252247</stp>
+        <tr r="L12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|16653237169964580824</stp>
+        <tr r="J23" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|14803833865323010755</stp>
+        <tr r="M4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|18238880980087394064</stp>
+        <tr r="M16" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|15641392927062038977</stp>
+        <tr r="J25" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|12669167195091492713</stp>
+        <tr r="M20" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|10551467684715455548</stp>
+        <tr r="K20" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|17619637816028688421</stp>
+        <tr r="L9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|12099606489821190083</stp>
+        <tr r="M25" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|13964446624339806113</stp>
+        <tr r="L24" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|16807207466929845685</stp>
+        <tr r="K22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|11353301307775401583</stp>
+        <tr r="K18" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|13655001025975843670</stp>
+        <tr r="M24" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|11659713832032417407</stp>
+        <tr r="L10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|14315375589618232487</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|15372773102459783880</stp>
+        <tr r="L11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|12753725086709389798</stp>
+        <tr r="K5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|13609617440478775950</stp>
+        <tr r="L19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|10114445549540737032</stp>
+        <tr r="J11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|16479784716977281743</stp>
+        <tr r="M12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|14485822310578151466</stp>
+        <tr r="J19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|10522024158223577782</stp>
+        <tr r="K21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|10067560267437521502</stp>
+        <tr r="J5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|13943960268048981568</stp>
+        <tr r="J21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|10735888765128995000</stp>
+        <tr r="K4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|17169232669883876688</stp>
+        <tr r="M21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|12025366520472378788</stp>
+        <tr r="J14" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|17162891946204661824</stp>
+        <tr r="L4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|14349111275962883730</stp>
+        <tr r="K17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|12385058639752844769</stp>
+        <tr r="M10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|11585133116482118702</stp>
+        <tr r="K19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|13864780850202879793</stp>
+        <tr r="M8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|12368820467680264807</stp>
+        <tr r="L21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|13917607511799704988</stp>
+        <tr r="L5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|13374360995788938568</stp>
         <tr r="L23" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|16223856867318431810</stp>
-        <tr r="L19" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|11597345571729156521</stp>
-        <tr r="J15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|11300211349628925674</stp>
-        <tr r="K17" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|11464027288963857300</stp>
-        <tr r="J20" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|12369772514559824412</stp>
-        <tr r="L10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|16420330225280091938</stp>
-        <tr r="K11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|13268058975312457809</stp>
-        <tr r="K6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|12894349969489348159</stp>
-        <tr r="M17" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|11332424131263489971</stp>
-        <tr r="L6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|12553030630794145906</stp>
-        <tr r="M11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|15010485298673399694</stp>
-        <tr r="K20" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|16040940968652296617</stp>
-        <tr r="M12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|13276379845687596155</stp>
-        <tr r="J5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|16924946296050369411</stp>
-        <tr r="J6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|12389159395831052984</stp>
-        <tr r="M24" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|17414756528321195003</stp>
-        <tr r="L9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|17595721731821833140</stp>
-        <tr r="M22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|12019348138641415067</stp>
-        <tr r="K14" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|16317658003954877494</stp>
-        <tr r="K13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|13677154004833204138</stp>
-        <tr r="M8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|16867374656532180267</stp>
-        <tr r="J22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|17302570631331485108</stp>
-        <tr r="M6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|12901583123362765638</stp>
-        <tr r="K4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|13074569610487984131</stp>
-        <tr r="J21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|14505935683117057440</stp>
+        <stp>BDH|17455120821019168877</stp>
+        <tr r="J3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|14964362897532321988</stp>
         <tr r="K15" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|15781253400061575045</stp>
-        <tr r="M18" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|17348719316740452733</stp>
-        <tr r="L17" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|15658545639812121766</stp>
-        <tr r="L14" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|11300640733946653512</stp>
-        <tr r="K18" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|13459606140917224141</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|13440377359406688458</stp>
-        <tr r="J11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|10570088366966274752</stp>
-        <tr r="M25" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|14184063224675073727</stp>
-        <tr r="L12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|10377124784895549823</stp>
-        <tr r="M21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|13745198436464980168</stp>
-        <tr r="L5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|10247167649308397977</stp>
-        <tr r="L25" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|15840162230296508555</stp>
-        <tr r="J17" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|13102591925929572897</stp>
-        <tr r="K24" s="1"/>
+        <stp>BDH|10898866062623708868</stp>
+        <tr r="K25" s="1"/>
       </tp>
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|4124977281939033020</stp>
-        <tr r="M20" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|3461834839787454151</stp>
+        <stp>BDH|9883206950292528087</stp>
+        <tr r="L18" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|3544870469176167675</stp>
+        <tr r="K9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|7563484942760465924</stp>
+        <tr r="J15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|8638869088534848217</stp>
+        <tr r="J24" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|5697585179571153920</stp>
+        <tr r="L7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|2729694185266565277</stp>
+        <tr r="K14" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|6511188195180430653</stp>
+        <tr r="L25" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|7928686215389769144</stp>
+        <tr r="J6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|7027484807419486393</stp>
+        <tr r="J13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|9844584167354745432</stp>
+        <tr r="J17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|8582243777672206579</stp>
+        <tr r="K3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|8287709595954372966</stp>
+        <tr r="M9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|7721224828983163042</stp>
+        <tr r="J22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|5775636384718990701</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|29614065289635002</stp>
+        <tr r="L6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|5106161918987688756</stp>
+        <tr r="L17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|7520560162191336025</stp>
+        <tr r="M7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|2050015968687071527</stp>
+        <tr r="L20" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|6414083350297417209</stp>
+        <tr r="M18" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|7251156930370016316</stp>
+        <tr r="J4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|8618546472919753535</stp>
+        <tr r="K24" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|2247099774305006759</stp>
+        <tr r="L16" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|2454435173333029545</stp>
+        <tr r="L22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|3674014144707565051</stp>
+        <tr r="L8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|3606153136990494124</stp>
+        <tr r="K6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|7913058262786958741</stp>
+        <tr r="M23" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|9229922953510569465</stp>
+        <tr r="K13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|5989189930353766538</stp>
+        <tr r="M17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|6434213631117498294</stp>
         <tr r="K23" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|4696855259530154610</stp>
+        <stp>BDH|4189969833868324449</stp>
+        <tr r="M6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|2410823368697890961</stp>
+        <tr r="M5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|2835857182976654719</stp>
+        <tr r="M14" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|1159531740611052260</stp>
         <tr r="J9" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|5985893412866428543</stp>
-        <tr r="L7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|4443702446358667076</stp>
-        <tr r="K25" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|9488356306591881489</stp>
-        <tr r="L11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|8015356591769077412</stp>
-        <tr r="K21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|8593161914874591485</stp>
-        <tr r="J13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|8237541349036376747</stp>
-        <tr r="L4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|9622185113531085142</stp>
-        <tr r="K3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|4980331662290814811</stp>
-        <tr r="J24" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|5841789258088618576</stp>
-        <tr r="M7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|3037805105139176815</stp>
-        <tr r="M14" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|3894720907409493656</stp>
-        <tr r="J25" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|4977997454220173361</stp>
-        <tr r="K19" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|2351381750799096930</stp>
-        <tr r="L22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6570111567951514428</stp>
+        <stp>BDH|321151305745352370</stp>
         <tr r="M19" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|7218346935477536571</stp>
-        <tr r="M4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|2673401034790335387</stp>
-        <tr r="J23" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6841237973696723321</stp>
-        <tr r="L24" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|5657169189692070949</stp>
-        <tr r="K5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|3774718237757293764</stp>
-        <tr r="L3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|5925413873041941795</stp>
-        <tr r="M16" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|2861292237086097567</stp>
-        <tr r="M9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|7026187451886915544</stp>
-        <tr r="M23" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6305531154823588542</stp>
-        <tr r="M10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|1573082230177078443</stp>
-        <tr r="L18" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|2564676117851635525</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|5329501724005104563</stp>
+        <stp>BDH|433023312416246110</stp>
         <tr r="J18" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|4415065924552487793</stp>
-        <tr r="M5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|7792645616017932403</stp>
-        <tr r="J4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6509014681724288979</stp>
-        <tr r="K9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|2182630909177498097</stp>
-        <tr r="L21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6424248679847578789</stp>
-        <tr r="L20" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|820316169086665755</stp>
-        <tr r="K22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|815823710216833308</stp>
-        <tr r="L8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|712846174573820253</stp>
-        <tr r="J19" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|333017479695431938</stp>
-        <tr r="J14" s="1"/>
+        <stp>BDH|190188493107009654</stp>
+        <tr r="M22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|692766789377603273</stp>
+        <tr r="M11" s="1"/>
       </tp>
     </main>
   </volType>
@@ -1163,10 +1171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74240C45-6CD2-4B75-8483-BBE4A52E60DB}">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="I19" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,7 +1192,7 @@
     <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H1" s="1" t="s">
         <v>81</v>
       </c>
@@ -1210,19 +1218,23 @@
         <v>100000</v>
       </c>
       <c r="P1">
-        <f t="shared" ref="P1:Q1" si="0">AVERAGE(P3:P25)</f>
-        <v>555.3273527020857</v>
+        <f t="shared" ref="P1" si="0">AVERAGE(P3:P25)</f>
+        <v>667.32137042470708</v>
       </c>
       <c r="Q1">
         <f>AVERAGE(Q3:Q25)</f>
-        <v>-477.24878424791933</v>
+        <v>-769.40882591468551</v>
       </c>
       <c r="R1">
         <f>AVERAGE(R3:R25)</f>
-        <v>78.078568454167041</v>
+        <v>-102.08745548997823</v>
+      </c>
+      <c r="T1">
+        <f>2.86-2.7175</f>
+        <v>0.14250000000000007</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -1245,18 +1257,18 @@
         <v>42</v>
       </c>
       <c r="J2">
-        <v>-13</v>
+        <v>-22</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L2">
         <f>J2</f>
-        <v>-13</v>
+        <v>-22</v>
       </c>
       <c r="M2">
         <f>K2</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>80</v>
@@ -1273,8 +1285,12 @@
       <c r="R2" s="7" t="s">
         <v>79</v>
       </c>
+      <c r="T2">
+        <f>T1/2.7175</f>
+        <v>5.2437902483900671E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>40259</v>
       </c>
@@ -1298,51 +1314,51 @@
         <v>48</v>
       </c>
       <c r="H3" s="2">
-        <f>WORKDAY($B3+$J$2,-1)</f>
-        <v>40221</v>
+        <f>WORKDAY($B3+$J$2+1,-1)</f>
+        <v>40213</v>
       </c>
       <c r="I3" s="2">
-        <f>WORKDAY($A3+$K$2,1)</f>
-        <v>40266</v>
-      </c>
-      <c r="J3">
+        <f>WORKDAY($A3+$K$2-1,1)</f>
+        <v>40263</v>
+      </c>
+      <c r="J3" s="10">
         <f>IF(F3="NA","",_xll.BDH($F3, "PX_LAST", $H3, $H3))</f>
-        <v>2.6425000000000001</v>
-      </c>
-      <c r="K3">
+        <v>2.6949999999999998</v>
+      </c>
+      <c r="K3" s="9">
         <f>IF(F3="NA","",_xll.BDH($F3, "PX_LAST", $I3, $I3))</f>
-        <v>3.13</v>
+        <v>3.1349999999999998</v>
       </c>
       <c r="L3">
         <f>IF(G3="NA","",_xll.BDH($G3, "PX_LAST", $H3, $H3))</f>
-        <v>6.4847000000000001</v>
+        <v>7.2721</v>
       </c>
       <c r="M3">
         <f>IF(G3="NA","",_xll.BDH($G3, "PX_LAST", $I3, $I3))</f>
-        <v>7.9261999999999997</v>
-      </c>
-      <c r="N3" s="3">
+        <v>7.9343000000000004</v>
+      </c>
+      <c r="N3" s="8">
         <f>-IFERROR((K3-J3)/J3,"")</f>
-        <v>-0.18448438978240295</v>
+        <v>-0.16326530612244897</v>
       </c>
       <c r="O3" s="3">
         <f>IFERROR((M3-L3)/L3,"")</f>
-        <v>0.22229247305195299</v>
-      </c>
-      <c r="P3">
+        <v>9.1060353955528708E-2</v>
+      </c>
+      <c r="P3" s="11">
         <f>IFERROR(N3*$O$1,0)</f>
-        <v>-18448.438978240294</v>
-      </c>
-      <c r="Q3">
-        <f>IFERROR(O3*$O$1,0)</f>
-        <v>22229.247305195298</v>
+        <v>-16326.530612244896</v>
+      </c>
+      <c r="Q3" s="11">
+        <f t="shared" ref="Q3:Q25" si="2">IFERROR(O3*$O$1,0)</f>
+        <v>9106.0353955528717</v>
       </c>
       <c r="R3">
         <f>IFERROR(Q3+P3,0)</f>
-        <v>3780.8083269550043</v>
+        <v>-7220.4952166920248</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>40532</v>
       </c>
@@ -1366,51 +1382,51 @@
         <v>43</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H26" si="2">WORKDAY($B4+$J$2,-1)</f>
-        <v>40494</v>
+        <f t="shared" ref="H4:H25" si="3">WORKDAY($B4+$J$2+1,-1)</f>
+        <v>40486</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" ref="I4:I25" si="3">WORKDAY($A4+$K$2,1)</f>
-        <v>40539</v>
+        <f t="shared" ref="I4:I25" si="4">WORKDAY($A4+$K$2-1,1)</f>
+        <v>40536</v>
       </c>
       <c r="J4">
         <f>IF(F4="NA","",_xll.BDH($F4, "PX_LAST", $H4, $H4))</f>
-        <v>0.61950000000000005</v>
-      </c>
-      <c r="K4">
+        <v>0.64949999999999997</v>
+      </c>
+      <c r="K4" t="str">
         <f>IF(F4="NA","",_xll.BDH($F4, "PX_LAST", $I4, $I4))</f>
-        <v>0.65749999999999997</v>
+        <v>#N/A N/A</v>
       </c>
       <c r="L4">
         <f>IF(G4="NA","",_xll.BDH($G4, "PX_LAST", $H4, $H4))</f>
-        <v>30.838999999999999</v>
-      </c>
-      <c r="M4">
+        <v>27.897500000000001</v>
+      </c>
+      <c r="M4" t="str">
         <f>IF(G4="NA","",_xll.BDH($G4, "PX_LAST", $I4, $I4))</f>
-        <v>31.265999999999998</v>
-      </c>
-      <c r="N4" s="3">
-        <f t="shared" ref="N4:N26" si="4">-IFERROR((K4-J4)/J4,"")</f>
-        <v>-6.1339790153349345E-2</v>
-      </c>
-      <c r="O4" s="3">
-        <f t="shared" ref="O4:O25" si="5">IFERROR((M4-L4)/L4,"")</f>
-        <v>1.3846103959272337E-2</v>
+        <v>#N/A N/A</v>
+      </c>
+      <c r="N4" s="3" t="e">
+        <f t="shared" ref="N4:N25" si="5">-IFERROR((K4-J4)/J4,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O4" s="3" t="str">
+        <f t="shared" ref="O4:O25" si="6">IFERROR((M4-L4)/L4,"")</f>
+        <v/>
       </c>
       <c r="P4">
-        <f>IFERROR(N4*$O$1,0)</f>
-        <v>-6133.979015334935</v>
+        <f t="shared" ref="P3:P25" si="7">IFERROR(N4*$O$1,0)</f>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <f>IFERROR(O4*$O$1,0)</f>
-        <v>1384.6103959272336</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R4:R25" si="6">IFERROR(Q4+P4,0)</f>
-        <v>-4749.3686194077018</v>
+        <f t="shared" ref="R4:R25" si="8">IFERROR(Q4+P4,0)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>40532</v>
       </c>
@@ -1431,51 +1447,51 @@
         <v>71</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="2"/>
-        <v>40494</v>
+        <f t="shared" si="3"/>
+        <v>40486</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="3"/>
-        <v>40539</v>
+        <f t="shared" si="4"/>
+        <v>40536</v>
       </c>
       <c r="J5">
         <f>IF(F5="NA","",_xll.BDH($F5, "PX_LAST", $H5, $H5))</f>
-        <v>3.75</v>
-      </c>
-      <c r="K5">
+        <v>4.2</v>
+      </c>
+      <c r="K5" t="str">
         <f>IF(F5="NA","",_xll.BDH($F5, "PX_LAST", $I5, $I5))</f>
-        <v>3.4725000000000001</v>
+        <v>#N/A N/A</v>
       </c>
       <c r="L5">
         <f>IF(G5="NA","",_xll.BDH($G5, "PX_LAST", $H5, $H5))</f>
-        <v>1.587</v>
-      </c>
-      <c r="M5">
+        <v>1.6</v>
+      </c>
+      <c r="M5" t="str">
         <f>IF(G5="NA","",_xll.BDH($G5, "PX_LAST", $I5, $I5))</f>
-        <v>1.5859999999999999</v>
-      </c>
-      <c r="N5" s="3">
-        <f t="shared" si="4"/>
-        <v>7.3999999999999969E-2</v>
-      </c>
-      <c r="O5" s="3">
+        <v>#N/A N/A</v>
+      </c>
+      <c r="N5" s="3" t="e">
         <f t="shared" si="5"/>
-        <v>-6.3011972274739248E-4</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O5" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="P5">
-        <f>IFERROR(N5*$O$1,0)</f>
-        <v>7399.9999999999973</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <f>IFERROR(O5*$O$1,0)</f>
-        <v>-63.01197227473925</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="R5">
-        <f t="shared" si="6"/>
-        <v>7336.9880277252578</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>40532</v>
       </c>
@@ -1496,51 +1512,51 @@
         <v>44</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="2"/>
-        <v>40494</v>
+        <f t="shared" si="3"/>
+        <v>40486</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="3"/>
-        <v>40539</v>
+        <f t="shared" si="4"/>
+        <v>40536</v>
       </c>
       <c r="J6">
         <f>IF(F6="NA","",_xll.BDH($F6, "PX_LAST", $H6, $H6))</f>
-        <v>10.65</v>
-      </c>
-      <c r="K6">
+        <v>11.04</v>
+      </c>
+      <c r="K6" t="str">
         <f>IF(F6="NA","",_xll.BDH($F6, "PX_LAST", $I6, $I6))</f>
-        <v>9.27</v>
+        <v>#N/A N/A</v>
       </c>
       <c r="L6">
         <f>IF(G6="NA","",_xll.BDH($G6, "PX_LAST", $H6, $H6))</f>
-        <v>72.67</v>
-      </c>
-      <c r="M6">
+        <v>72.36</v>
+      </c>
+      <c r="M6" t="str">
         <f>IF(G6="NA","",_xll.BDH($G6, "PX_LAST", $I6, $I6))</f>
-        <v>75.44</v>
-      </c>
-      <c r="N6" s="3">
-        <f t="shared" si="4"/>
-        <v>0.12957746478873247</v>
-      </c>
-      <c r="O6" s="3">
+        <v>#N/A N/A</v>
+      </c>
+      <c r="N6" s="3" t="e">
         <f t="shared" si="5"/>
-        <v>3.8117517545066683E-2</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O6" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="P6">
-        <f>IFERROR(N6*$O$1,0)</f>
-        <v>12957.746478873247</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <f>IFERROR(O6*$O$1,0)</f>
-        <v>3811.7517545066685</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="R6">
-        <f t="shared" si="6"/>
-        <v>16769.498233379916</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>40805</v>
       </c>
@@ -1564,12 +1580,12 @@
         <v>51</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="2"/>
-        <v>40767</v>
+        <f t="shared" si="3"/>
+        <v>40759</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="3"/>
-        <v>40812</v>
+        <f t="shared" si="4"/>
+        <v>40809</v>
       </c>
       <c r="J7" t="str">
         <f>IF(F7="NA","",_xll.BDH($F7, "PX_LAST", $H7, $H7))</f>
@@ -1581,34 +1597,34 @@
       </c>
       <c r="L7">
         <f>IF(G7="NA","",_xll.BDH($G7, "PX_LAST", $H7, $H7))</f>
-        <v>4.2561</v>
+        <v>3.9771999999999998</v>
       </c>
       <c r="M7">
         <f>IF(G7="NA","",_xll.BDH($G7, "PX_LAST", $I7, $I7))</f>
-        <v>4.8502000000000001</v>
+        <v>4.7320000000000002</v>
       </c>
       <c r="N7" s="3" t="e">
         <f>-IFERROR((K7-J7)/J7,"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="O7" s="3">
-        <f t="shared" si="5"/>
-        <v>0.13958788562298821</v>
+        <f t="shared" si="6"/>
+        <v>0.18978175600925284</v>
       </c>
       <c r="P7">
-        <f>IFERROR(N7*$O$1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f>IFERROR(O7*$O$1,0)</f>
-        <v>13958.788562298821</v>
+        <f t="shared" si="2"/>
+        <v>18978.175600925286</v>
       </c>
       <c r="R7">
-        <f t="shared" si="6"/>
-        <v>13958.788562298821</v>
+        <f t="shared" si="8"/>
+        <v>18978.175600925286</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>40896</v>
       </c>
@@ -1632,12 +1648,12 @@
         <v>52</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="2"/>
-        <v>40858</v>
+        <f t="shared" si="3"/>
+        <v>40850</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="3"/>
-        <v>40903</v>
+        <f t="shared" si="4"/>
+        <v>40900</v>
       </c>
       <c r="J8" t="str">
         <f>IF(F8="NA","",_xll.BDH($F8, "PX_LAST", $H8, $H8))</f>
@@ -1649,34 +1665,34 @@
       </c>
       <c r="L8">
         <f>IF(G8="NA","",_xll.BDH($G8, "PX_LAST", $H8, $H8))</f>
-        <v>11.89</v>
-      </c>
-      <c r="M8" t="str">
+        <v>12.03</v>
+      </c>
+      <c r="M8">
         <f>IF(G8="NA","",_xll.BDH($G8, "PX_LAST", $I8, $I8))</f>
-        <v>#N/A N/A</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="N8" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O8" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="O8" s="3">
+        <f t="shared" si="6"/>
+        <v>-0.15128844555278459</v>
       </c>
       <c r="P8">
-        <f>IFERROR(N8*$O$1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>IFERROR(O8*$O$1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-15128.84455527846</v>
       </c>
       <c r="R8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>-15128.84455527846</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>41631</v>
       </c>
@@ -1700,51 +1716,51 @@
         <v>53</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="2"/>
-        <v>41593</v>
+        <f t="shared" si="3"/>
+        <v>41585</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="3"/>
-        <v>41638</v>
+        <f t="shared" si="4"/>
+        <v>41635</v>
       </c>
       <c r="J9">
         <f>IF(F9="NA","",_xll.BDH($F9, "PX_LAST", $H9, $H9))</f>
-        <v>33.145499999999998</v>
+        <v>32.238599999999998</v>
       </c>
       <c r="K9">
         <f>IF(F9="NA","",_xll.BDH($F9, "PX_LAST", $I9, $I9))</f>
-        <v>33.243000000000002</v>
+        <v>32.9895</v>
       </c>
       <c r="L9">
         <f>IF(G9="NA","",_xll.BDH($G9, "PX_LAST", $H9, $H9))</f>
-        <v>28.8</v>
+        <v>28.55</v>
       </c>
       <c r="M9">
         <f>IF(G9="NA","",_xll.BDH($G9, "PX_LAST", $I9, $I9))</f>
-        <v>32.6</v>
+        <v>31.94</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="4"/>
-        <v>-2.9415757795176931E-3</v>
+        <f t="shared" si="5"/>
+        <v>-2.3291954365264048E-2</v>
       </c>
       <c r="O9" s="3">
-        <f t="shared" si="5"/>
-        <v>0.13194444444444448</v>
+        <f t="shared" si="6"/>
+        <v>0.11873905429071806</v>
       </c>
       <c r="P9">
-        <f>IFERROR(N9*$O$1,0)</f>
-        <v>-294.15757795176933</v>
+        <f t="shared" si="7"/>
+        <v>-2329.195436526405</v>
       </c>
       <c r="Q9">
-        <f>IFERROR(O9*$O$1,0)</f>
-        <v>13194.444444444447</v>
+        <f t="shared" si="2"/>
+        <v>11873.905429071805</v>
       </c>
       <c r="R9">
-        <f t="shared" si="6"/>
-        <v>12900.286866492677</v>
+        <f t="shared" si="8"/>
+        <v>9544.7099925454004</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>41722</v>
       </c>
@@ -1768,12 +1784,12 @@
         <v>54</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="2"/>
-        <v>41684</v>
+        <f t="shared" si="3"/>
+        <v>41676</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="3"/>
-        <v>41729</v>
+        <f t="shared" si="4"/>
+        <v>41726</v>
       </c>
       <c r="J10" t="str">
         <f>IF(F10="NA","",_xll.BDH($F10, "PX_LAST", $H10, $H10))</f>
@@ -1785,34 +1801,34 @@
       </c>
       <c r="L10">
         <f>IF(G10="NA","",_xll.BDH($G10, "PX_LAST", $H10, $H10))</f>
-        <v>14.25</v>
+        <v>13.7</v>
       </c>
       <c r="M10">
         <f>IF(G10="NA","",_xll.BDH($G10, "PX_LAST", $I10, $I10))</f>
-        <v>12.41</v>
+        <v>12.48</v>
       </c>
       <c r="N10" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" si="5"/>
-        <v>-0.12912280701754386</v>
+        <f t="shared" si="6"/>
+        <v>-8.9051094890510871E-2</v>
       </c>
       <c r="P10">
-        <f>IFERROR(N10*$O$1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q10">
-        <f>IFERROR(O10*$O$1,0)</f>
-        <v>-12912.280701754386</v>
+        <f t="shared" si="2"/>
+        <v>-8905.1094890510867</v>
       </c>
       <c r="R10">
-        <f t="shared" si="6"/>
-        <v>-12912.280701754386</v>
+        <f t="shared" si="8"/>
+        <v>-8905.1094890510867</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>42268</v>
       </c>
@@ -1836,51 +1852,51 @@
         <v>45</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="2"/>
-        <v>42230</v>
+        <f t="shared" si="3"/>
+        <v>42222</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="3"/>
-        <v>42275</v>
+        <f t="shared" si="4"/>
+        <v>42272</v>
       </c>
       <c r="J11">
         <f>IF(F11="NA","",_xll.BDH($F11, "PX_LAST", $H11, $H11))</f>
-        <v>7.2312000000000003</v>
+        <v>7.3418000000000001</v>
       </c>
       <c r="K11">
         <f>IF(F11="NA","",_xll.BDH($F11, "PX_LAST", $I11, $I11))</f>
-        <v>7.3240999999999996</v>
+        <v>7.3461999999999996</v>
       </c>
       <c r="L11">
         <f>IF(G11="NA","",_xll.BDH($G11, "PX_LAST", $H11, $H11))</f>
-        <v>4.6580000000000004</v>
+        <v>4.8360000000000003</v>
       </c>
       <c r="M11">
         <f>IF(G11="NA","",_xll.BDH($G11, "PX_LAST", $I11, $I11))</f>
-        <v>3.988</v>
+        <v>4.0960000000000001</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="4"/>
-        <v>-1.2847106980860619E-2</v>
+        <f t="shared" si="5"/>
+        <v>-5.9930807159000725E-4</v>
       </c>
       <c r="O11" s="3">
-        <f t="shared" si="5"/>
-        <v>-0.14383855732073858</v>
+        <f t="shared" si="6"/>
+        <v>-0.15301902398676595</v>
       </c>
       <c r="P11">
-        <f>IFERROR(N11*$O$1,0)</f>
-        <v>-1284.7106980860619</v>
+        <f t="shared" si="7"/>
+        <v>-59.930807159000729</v>
       </c>
       <c r="Q11">
-        <f>IFERROR(O11*$O$1,0)</f>
-        <v>-14383.855732073858</v>
+        <f t="shared" si="2"/>
+        <v>-15301.902398676595</v>
       </c>
       <c r="R11">
-        <f t="shared" si="6"/>
-        <v>-15668.566430159921</v>
+        <f t="shared" si="8"/>
+        <v>-15361.833205835595</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>42359</v>
       </c>
@@ -1904,12 +1920,12 @@
         <v>58</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="2"/>
-        <v>42321</v>
+        <f t="shared" si="3"/>
+        <v>42313</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="3"/>
-        <v>42366</v>
+        <f t="shared" si="4"/>
+        <v>42363</v>
       </c>
       <c r="J12" t="str">
         <f>IF(F12="NA","",_xll.BDH($F12, "PX_LAST", $H12, $H12))</f>
@@ -1921,34 +1937,34 @@
       </c>
       <c r="L12">
         <f>IF(G12="NA","",_xll.BDH($G12, "PX_LAST", $H12, $H12))</f>
-        <v>6.75</v>
-      </c>
-      <c r="M12">
+        <v>6.55</v>
+      </c>
+      <c r="M12" t="str">
         <f>IF(G12="NA","",_xll.BDH($G12, "PX_LAST", $I12, $I12))</f>
-        <v>7.1</v>
+        <v>#N/A N/A</v>
       </c>
       <c r="N12" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O12" s="3">
-        <f t="shared" si="5"/>
-        <v>5.1851851851851802E-2</v>
+      <c r="O12" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="P12">
-        <f>IFERROR(N12*$O$1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f>IFERROR(O12*$O$1,0)</f>
-        <v>5185.1851851851798</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="R12">
-        <f t="shared" si="6"/>
-        <v>5185.1851851851798</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>42450</v>
       </c>
@@ -1972,16 +1988,16 @@
         <v>46</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="2"/>
-        <v>42412</v>
+        <f t="shared" si="3"/>
+        <v>42404</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="3"/>
-        <v>42457</v>
+        <f t="shared" si="4"/>
+        <v>42454</v>
       </c>
       <c r="J13">
         <f>IF(F13="NA","",_xll.BDH($F13, "PX_LAST", $H13, $H13))</f>
-        <v>65.849999999999994</v>
+        <v>72.650000000000006</v>
       </c>
       <c r="K13" t="str">
         <f>IF(F13="NA","",_xll.BDH($F13, "PX_LAST", $I13, $I13))</f>
@@ -1996,27 +2012,27 @@
         <v/>
       </c>
       <c r="N13" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="O13" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P13">
-        <f>IFERROR(N13*$O$1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q13">
-        <f>IFERROR(O13*$O$1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>42541</v>
       </c>
@@ -2040,51 +2056,51 @@
         <v>59</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="2"/>
-        <v>42503</v>
+        <f t="shared" si="3"/>
+        <v>42495</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="3"/>
-        <v>42548</v>
+        <f t="shared" si="4"/>
+        <v>42545</v>
       </c>
       <c r="J14">
         <f>IF(F14="NA","",_xll.BDH($F14, "PX_LAST", $H14, $H14))</f>
-        <v>5.2967000000000004</v>
+        <v>5.4436</v>
       </c>
       <c r="K14">
         <f>IF(F14="NA","",_xll.BDH($F14, "PX_LAST", $I14, $I14))</f>
-        <v>3.7180999999999997</v>
+        <v>4.1692</v>
       </c>
       <c r="L14">
         <f>IF(G14="NA","",_xll.BDH($G14, "PX_LAST", $H14, $H14))</f>
-        <v>24.18</v>
+        <v>22.72</v>
       </c>
       <c r="M14">
         <f>IF(G14="NA","",_xll.BDH($G14, "PX_LAST", $I14, $I14))</f>
-        <v>25.69</v>
+        <v>25.45</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" si="4"/>
-        <v>0.29803462533275443</v>
+        <f t="shared" si="5"/>
+        <v>0.23410978029245352</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" si="5"/>
-        <v>6.2448304383788317E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.12015845070422537</v>
       </c>
       <c r="P14">
-        <f>IFERROR(N14*$O$1,0)</f>
-        <v>29803.462533275444</v>
+        <f t="shared" si="7"/>
+        <v>23410.978029245351</v>
       </c>
       <c r="Q14">
-        <f>IFERROR(O14*$O$1,0)</f>
-        <v>6244.8304383788318</v>
+        <f t="shared" si="2"/>
+        <v>12015.845070422538</v>
       </c>
       <c r="R14">
-        <f t="shared" si="6"/>
-        <v>36048.292971654279</v>
+        <f t="shared" si="8"/>
+        <v>35426.82309966789</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>42723</v>
       </c>
@@ -2108,20 +2124,20 @@
         <v>46</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="2"/>
-        <v>42685</v>
+        <f t="shared" si="3"/>
+        <v>42677</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="3"/>
-        <v>42730</v>
+        <f t="shared" si="4"/>
+        <v>42727</v>
       </c>
       <c r="J15">
         <f>IF(F15="NA","",_xll.BDH($F15, "PX_LAST", $H15, $H15))</f>
-        <v>11</v>
-      </c>
-      <c r="K15" t="str">
+        <v>10.76</v>
+      </c>
+      <c r="K15">
         <f>IF(F15="NA","",_xll.BDH($F15, "PX_LAST", $I15, $I15))</f>
-        <v>#N/A N/A</v>
+        <v>11.08</v>
       </c>
       <c r="L15" t="str">
         <f>IF(G15="NA","",_xll.BDH($G15, "PX_LAST", $H15, $H15))</f>
@@ -2131,28 +2147,28 @@
         <f>IF(G15="NA","",_xll.BDH($G15, "PX_LAST", $I15, $I15))</f>
         <v/>
       </c>
-      <c r="N15" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
+      <c r="N15" s="3">
+        <f t="shared" si="5"/>
+        <v>-2.9739776951672889E-2</v>
       </c>
       <c r="O15" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P15">
-        <f>IFERROR(N15*$O$1,0)</f>
+        <f t="shared" si="7"/>
+        <v>-2973.9776951672889</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q15">
-        <f>IFERROR(O15*$O$1,0)</f>
-        <v>0</v>
-      </c>
       <c r="R15">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>-2973.9776951672889</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>42814</v>
       </c>
@@ -2176,12 +2192,12 @@
         <v>61</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="2"/>
-        <v>42776</v>
+        <f t="shared" si="3"/>
+        <v>42768</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="3"/>
-        <v>42821</v>
+        <f t="shared" si="4"/>
+        <v>42818</v>
       </c>
       <c r="J16" t="str">
         <f>IF(F16="NA","",_xll.BDH($F16, "PX_LAST", $H16, $H16))</f>
@@ -2193,31 +2209,31 @@
       </c>
       <c r="L16">
         <f>IF(G16="NA","",_xll.BDH($G16, "PX_LAST", $H16, $H16))</f>
-        <v>23.85</v>
+        <v>24.2</v>
       </c>
       <c r="M16">
         <f>IF(G16="NA","",_xll.BDH($G16, "PX_LAST", $I16, $I16))</f>
-        <v>23.67</v>
+        <v>23.51</v>
       </c>
       <c r="N16" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="O16" s="3">
-        <f t="shared" si="5"/>
-        <v>-7.5471698113207426E-3</v>
+        <f t="shared" si="6"/>
+        <v>-2.8512396694214782E-2</v>
       </c>
       <c r="P16">
-        <f>IFERROR(N16*$O$1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q16">
-        <f>IFERROR(O16*$O$1,0)</f>
-        <v>-754.71698113207424</v>
+        <f t="shared" si="2"/>
+        <v>-2851.2396694214781</v>
       </c>
       <c r="R16">
-        <f t="shared" si="6"/>
-        <v>-754.71698113207424</v>
+        <f t="shared" si="8"/>
+        <v>-2851.2396694214781</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -2244,48 +2260,48 @@
         <v>56</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="2"/>
-        <v>43049</v>
+        <f t="shared" si="3"/>
+        <v>43041</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="3"/>
-        <v>43094</v>
+        <f t="shared" si="4"/>
+        <v>43091</v>
       </c>
       <c r="J17">
         <f>IF(F17="NA","",_xll.BDH($F17, "PX_LAST", $H17, $H17))</f>
-        <v>7.2</v>
-      </c>
-      <c r="K17" t="str">
+        <v>7.29</v>
+      </c>
+      <c r="K17">
         <f>IF(F17="NA","",_xll.BDH($F17, "PX_LAST", $I17, $I17))</f>
-        <v>#N/A N/A</v>
+        <v>7.42</v>
       </c>
       <c r="L17">
         <f>IF(G17="NA","",_xll.BDH($G17, "PX_LAST", $H17, $H17))</f>
-        <v>6.76</v>
-      </c>
-      <c r="M17" t="str">
+        <v>6.9450000000000003</v>
+      </c>
+      <c r="M17">
         <f>IF(G17="NA","",_xll.BDH($G17, "PX_LAST", $I17, $I17))</f>
-        <v>#N/A N/A</v>
-      </c>
-      <c r="N17" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O17" s="3" t="str">
+        <v>7.15</v>
+      </c>
+      <c r="N17" s="3">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-1.7832647462277078E-2</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="6"/>
+        <v>2.9517638588912896E-2</v>
       </c>
       <c r="P17">
-        <f>IFERROR(N17*$O$1,0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-1783.2647462277077</v>
       </c>
       <c r="Q17">
-        <f>IFERROR(O17*$O$1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2951.7638588912896</v>
       </c>
       <c r="R17">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1168.4991126635819</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -2312,48 +2328,48 @@
         <v>63</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="2"/>
-        <v>43420</v>
+        <f t="shared" si="3"/>
+        <v>43412</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="3"/>
-        <v>43467</v>
+        <f t="shared" si="4"/>
+        <v>43465</v>
       </c>
       <c r="J18">
         <f>IF(F18="NA","",_xll.BDH($F18, "PX_LAST", $H18, $H18))</f>
-        <v>5.13</v>
-      </c>
-      <c r="K18">
+        <v>5.29</v>
+      </c>
+      <c r="K18" t="str">
         <f>IF(F18="NA","",_xll.BDH($F18, "PX_LAST", $I18, $I18))</f>
-        <v>5.0449999999999999</v>
+        <v>#N/A N/A</v>
       </c>
       <c r="L18">
         <f>IF(G18="NA","",_xll.BDH($G18, "PX_LAST", $H18, $H18))</f>
-        <v>14.48</v>
-      </c>
-      <c r="M18">
+        <v>15.88</v>
+      </c>
+      <c r="M18" t="str">
         <f>IF(G18="NA","",_xll.BDH($G18, "PX_LAST", $I18, $I18))</f>
-        <v>13.91</v>
-      </c>
-      <c r="N18" s="3">
-        <f t="shared" si="4"/>
-        <v>1.6569200779727088E-2</v>
-      </c>
-      <c r="O18" s="3">
+        <v>#N/A N/A</v>
+      </c>
+      <c r="N18" s="3" t="e">
         <f t="shared" si="5"/>
-        <v>-3.9364640883977918E-2</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O18" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="P18">
-        <f>IFERROR(N18*$O$1,0)</f>
-        <v>1656.9200779727087</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <f>IFERROR(O18*$O$1,0)</f>
-        <v>-3936.4640883977918</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="R18">
-        <f t="shared" si="6"/>
-        <v>-2279.5440104250829</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -2377,48 +2393,48 @@
         <v>64</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="2"/>
-        <v>43420</v>
+        <f t="shared" si="3"/>
+        <v>43412</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="3"/>
-        <v>43467</v>
+        <f t="shared" si="4"/>
+        <v>43465</v>
       </c>
       <c r="J19">
         <f>IF(F19="NA","",_xll.BDH($F19, "PX_LAST", $H19, $H19))</f>
-        <v>1.3780000000000001</v>
-      </c>
-      <c r="K19">
+        <v>1.5089999999999999</v>
+      </c>
+      <c r="K19" t="str">
         <f>IF(F19="NA","",_xll.BDH($F19, "PX_LAST", $I19, $I19))</f>
-        <v>1.53</v>
+        <v>#N/A N/A</v>
       </c>
       <c r="L19">
         <f>IF(G19="NA","",_xll.BDH($G19, "PX_LAST", $H19, $H19))</f>
-        <v>0.79069999999999996</v>
-      </c>
-      <c r="M19">
+        <v>0.81950000000000001</v>
+      </c>
+      <c r="M19" t="str">
         <f>IF(G19="NA","",_xll.BDH($G19, "PX_LAST", $I19, $I19))</f>
-        <v>0.86380000000000001</v>
-      </c>
-      <c r="N19" s="3">
-        <f t="shared" si="4"/>
-        <v>-0.1103047895500725</v>
-      </c>
-      <c r="O19" s="3">
+        <v>#N/A N/A</v>
+      </c>
+      <c r="N19" s="3" t="e">
         <f t="shared" si="5"/>
-        <v>9.2449728089035108E-2</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O19" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="P19">
-        <f>IFERROR(N19*$O$1,0)</f>
-        <v>-11030.478955007251</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <f>IFERROR(O19*$O$1,0)</f>
-        <v>9244.9728089035107</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="R19">
-        <f t="shared" si="6"/>
-        <v>-1785.5061461037403</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -2445,48 +2461,48 @@
         <v>66</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="2"/>
-        <v>43504</v>
+        <f t="shared" si="3"/>
+        <v>43496</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="3"/>
-        <v>43549</v>
+        <f t="shared" si="4"/>
+        <v>43546</v>
       </c>
       <c r="J20">
         <f>IF(F20="NA","",_xll.BDH($F20, "PX_LAST", $H20, $H20))</f>
-        <v>9.32</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="K20">
         <f>IF(F20="NA","",_xll.BDH($F20, "PX_LAST", $I20, $I20))</f>
-        <v>10.08</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="L20">
         <f>IF(G20="NA","",_xll.BDH($G20, "PX_LAST", $H20, $H20))</f>
-        <v>2.9140000000000001</v>
+        <v>2.952</v>
       </c>
       <c r="M20">
         <f>IF(G20="NA","",_xll.BDH($G20, "PX_LAST", $I20, $I20))</f>
-        <v>3.14</v>
+        <v>3.1360000000000001</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" si="4"/>
-        <v>-8.1545064377682372E-2</v>
+        <f t="shared" si="5"/>
+        <v>-2.4072216649949869E-2</v>
       </c>
       <c r="O20" s="3">
-        <f t="shared" si="5"/>
-        <v>7.755662319835277E-2</v>
+        <f t="shared" si="6"/>
+        <v>6.2330623306233117E-2</v>
       </c>
       <c r="P20">
-        <f>IFERROR(N20*$O$1,0)</f>
-        <v>-8154.5064377682374</v>
+        <f t="shared" si="7"/>
+        <v>-2407.2216649949869</v>
       </c>
       <c r="Q20">
-        <f>IFERROR(O20*$O$1,0)</f>
-        <v>7755.6623198352772</v>
+        <f t="shared" si="2"/>
+        <v>6233.0623306233119</v>
       </c>
       <c r="R20">
-        <f t="shared" si="6"/>
-        <v>-398.84411793296022</v>
+        <f t="shared" si="8"/>
+        <v>3825.840665628325</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -2513,48 +2529,48 @@
         <v>65</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="2"/>
-        <v>43602</v>
+        <f t="shared" si="3"/>
+        <v>43594</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="3"/>
-        <v>43647</v>
+        <f t="shared" si="4"/>
+        <v>43644</v>
       </c>
       <c r="J21">
         <f>IF(F21="NA","",_xll.BDH($F21, "PX_LAST", $H21, $H21))</f>
-        <v>24.54</v>
+        <v>24.14</v>
       </c>
       <c r="K21">
         <f>IF(F21="NA","",_xll.BDH($F21, "PX_LAST", $I21, $I21))</f>
-        <v>25.5</v>
+        <v>25.32</v>
       </c>
       <c r="L21">
         <f>IF(G21="NA","",_xll.BDH($G21, "PX_LAST", $H21, $H21))</f>
-        <v>8.77</v>
+        <v>8.1</v>
       </c>
       <c r="M21">
         <f>IF(G21="NA","",_xll.BDH($G21, "PX_LAST", $I21, $I21))</f>
-        <v>9.093</v>
+        <v>9.0609999999999999</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="4"/>
-        <v>-3.911980440097803E-2</v>
+        <f t="shared" si="5"/>
+        <v>-4.8881524440762207E-2</v>
       </c>
       <c r="O21" s="3">
-        <f t="shared" si="5"/>
-        <v>3.6830102622577014E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.11864197530864201</v>
       </c>
       <c r="P21">
-        <f>IFERROR(N21*$O$1,0)</f>
-        <v>-3911.9804400978028</v>
+        <f t="shared" si="7"/>
+        <v>-4888.1524440762205</v>
       </c>
       <c r="Q21">
-        <f>IFERROR(O21*$O$1,0)</f>
-        <v>3683.0102622577015</v>
+        <f t="shared" si="2"/>
+        <v>11864.197530864201</v>
       </c>
       <c r="R21">
-        <f t="shared" si="6"/>
-        <v>-228.97017784010131</v>
+        <f t="shared" si="8"/>
+        <v>6976.0450867879808</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -2581,48 +2597,48 @@
         <v>61</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="2"/>
-        <v>43784</v>
+        <f t="shared" si="3"/>
+        <v>43776</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="3"/>
-        <v>43829</v>
+        <f t="shared" si="4"/>
+        <v>43826</v>
       </c>
       <c r="J22">
         <f>IF(F22="NA","",_xll.BDH($F22, "PX_LAST", $H22, $H22))</f>
-        <v>5.3579999999999997</v>
+        <v>5.274</v>
       </c>
       <c r="K22">
         <f>IF(F22="NA","",_xll.BDH($F22, "PX_LAST", $I22, $I22))</f>
-        <v>5.1120000000000001</v>
+        <v>5.2379999999999995</v>
       </c>
       <c r="L22">
         <f>IF(G22="NA","",_xll.BDH($G22, "PX_LAST", $H22, $H22))</f>
-        <v>31.86</v>
+        <v>31.06</v>
       </c>
       <c r="M22">
         <f>IF(G22="NA","",_xll.BDH($G22, "PX_LAST", $I22, $I22))</f>
-        <v>28.96</v>
+        <v>29.1</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="4"/>
-        <v>4.5912653975363864E-2</v>
+        <f t="shared" si="5"/>
+        <v>6.8259385665529913E-3</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" si="5"/>
-        <v>-9.1023226616446906E-2</v>
+        <f t="shared" si="6"/>
+        <v>-6.3103670315518265E-2</v>
       </c>
       <c r="P22">
-        <f>IFERROR(N22*$O$1,0)</f>
-        <v>4591.2653975363864</v>
+        <f t="shared" si="7"/>
+        <v>682.59385665529908</v>
       </c>
       <c r="Q22">
-        <f>IFERROR(O22*$O$1,0)</f>
-        <v>-9102.32266164469</v>
+        <f t="shared" si="2"/>
+        <v>-6310.3670315518266</v>
       </c>
       <c r="R22">
-        <f t="shared" si="6"/>
-        <v>-4511.0572641083036</v>
+        <f t="shared" si="8"/>
+        <v>-5627.7731748965271</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -2649,48 +2665,48 @@
         <v>62</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="2"/>
-        <v>43875</v>
+        <f t="shared" si="3"/>
+        <v>43867</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="3"/>
-        <v>43920</v>
+        <f t="shared" si="4"/>
+        <v>43917</v>
       </c>
       <c r="J23">
         <f>IF(F23="NA","",_xll.BDH($F23, "PX_LAST", $H23, $H23))</f>
-        <v>0.99650000000000005</v>
+        <v>0.9224</v>
       </c>
       <c r="K23">
         <f>IF(F23="NA","",_xll.BDH($F23, "PX_LAST", $I23, $I23))</f>
-        <v>0.622</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="L23">
         <f>IF(G23="NA","",_xll.BDH($G23, "PX_LAST", $H23, $H23))</f>
-        <v>8.4450000000000003</v>
+        <v>8.24</v>
       </c>
       <c r="M23">
         <f>IF(G23="NA","",_xll.BDH($G23, "PX_LAST", $I23, $I23))</f>
-        <v>4.7219999999999995</v>
+        <v>4.9660000000000002</v>
       </c>
       <c r="N23" s="3">
-        <f t="shared" si="4"/>
-        <v>0.37581535373808334</v>
+        <f t="shared" si="5"/>
+        <v>0.35819601040763227</v>
       </c>
       <c r="O23" s="3">
-        <f t="shared" si="5"/>
-        <v>-0.4408525754884548</v>
+        <f t="shared" si="6"/>
+        <v>-0.39733009708737865</v>
       </c>
       <c r="P23">
-        <f>IFERROR(N23*$O$1,0)</f>
-        <v>37581.535373808336</v>
+        <f t="shared" si="7"/>
+        <v>35819.601040763228</v>
       </c>
       <c r="Q23">
-        <f>IFERROR(O23*$O$1,0)</f>
-        <v>-44085.257548845482</v>
+        <f t="shared" si="2"/>
+        <v>-39733.009708737867</v>
       </c>
       <c r="R23">
-        <f t="shared" si="6"/>
-        <v>-6503.7221750371464</v>
+        <f t="shared" si="8"/>
+        <v>-3913.4086679746397</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -2717,48 +2733,48 @@
         <v>72</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="2"/>
-        <v>43966</v>
+        <f t="shared" si="3"/>
+        <v>43958</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="3"/>
-        <v>44011</v>
+        <f t="shared" si="4"/>
+        <v>44008</v>
       </c>
       <c r="J24">
         <f>IF(F24="NA","",_xll.BDH($F24, "PX_LAST", $H24, $H24))</f>
-        <v>1.3585</v>
+        <v>1.4350000000000001</v>
       </c>
       <c r="K24">
         <f>IF(F24="NA","",_xll.BDH($F24, "PX_LAST", $I24, $I24))</f>
-        <v>1.5426</v>
+        <v>1.4708999999999999</v>
       </c>
       <c r="L24">
         <f>IF(G24="NA","",_xll.BDH($G24, "PX_LAST", $H24, $H24))</f>
-        <v>28</v>
+        <v>26.28</v>
       </c>
       <c r="M24">
         <f>IF(G24="NA","",_xll.BDH($G24, "PX_LAST", $I24, $I24))</f>
         <v>26.54</v>
       </c>
       <c r="N24" s="3">
-        <f t="shared" si="4"/>
-        <v>-0.13551711446448284</v>
+        <f t="shared" si="5"/>
+        <v>-2.5017421602787332E-2</v>
       </c>
       <c r="O24" s="3">
-        <f t="shared" si="5"/>
-        <v>-5.2142857142857171E-2</v>
+        <f t="shared" si="6"/>
+        <v>9.8934550989344741E-3</v>
       </c>
       <c r="P24">
-        <f>IFERROR(N24*$O$1,0)</f>
-        <v>-13551.711446448284</v>
+        <f t="shared" si="7"/>
+        <v>-2501.7421602787331</v>
       </c>
       <c r="Q24">
-        <f>IFERROR(O24*$O$1,0)</f>
-        <v>-5214.2857142857174</v>
+        <f t="shared" si="2"/>
+        <v>989.34550989344746</v>
       </c>
       <c r="R24">
-        <f t="shared" si="6"/>
-        <v>-18765.997160734001</v>
+        <f t="shared" si="8"/>
+        <v>-1512.3966503852857</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -2782,48 +2798,48 @@
         <v>67</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="2"/>
-        <v>43966</v>
+        <f t="shared" si="3"/>
+        <v>43958</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="3"/>
-        <v>44011</v>
+        <f t="shared" si="4"/>
+        <v>44008</v>
       </c>
       <c r="J25">
         <f>IF(F25="NA","",_xll.BDH($F25, "PX_LAST", $H25, $H25))</f>
-        <v>10.43</v>
+        <v>10.89</v>
       </c>
       <c r="K25">
         <f>IF(F25="NA","",_xll.BDH($F25, "PX_LAST", $I25, $I25))</f>
-        <v>12.35</v>
+        <v>12.12</v>
       </c>
       <c r="L25">
         <f>IF(G25="NA","",_xll.BDH($G25, "PX_LAST", $H25, $H25))</f>
-        <v>9.6300000000000008</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="M25">
         <f>IF(G25="NA","",_xll.BDH($G25, "PX_LAST", $I25, $I25))</f>
-        <v>8.9350000000000005</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="N25" s="3">
-        <f t="shared" si="4"/>
-        <v>-0.1840843720038351</v>
+        <f t="shared" si="5"/>
+        <v>-0.11294765840220372</v>
       </c>
       <c r="O25" s="3">
-        <f t="shared" si="5"/>
-        <v>-7.2170301142263776E-2</v>
+        <f t="shared" si="6"/>
+        <v>-3.4782608695652015E-2</v>
       </c>
       <c r="P25">
-        <f>IFERROR(N25*$O$1,0)</f>
-        <v>-18408.437200383509</v>
+        <f t="shared" si="7"/>
+        <v>-11294.765840220372</v>
       </c>
       <c r="Q25">
-        <f>IFERROR(O25*$O$1,0)</f>
-        <v>-7217.0301142263779</v>
+        <f t="shared" si="2"/>
+        <v>-3478.2608695652016</v>
       </c>
       <c r="R25">
-        <f t="shared" si="6"/>
-        <v>-25625.467314609887</v>
+        <f t="shared" si="8"/>
+        <v>-14773.026709785574</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -2833,7 +2849,7 @@
       <c r="I26" s="2"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3" t="str">
-        <f t="shared" ref="O26" si="7">IFERROR((M26-L26)/L26,"")</f>
+        <f t="shared" ref="O26" si="9">IFERROR((M26-L26)/L26,"")</f>
         <v/>
       </c>
     </row>
